--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Місяць</t>
   </si>
@@ -72,7 +72,10 @@
     <t>Грудень</t>
   </si>
   <si>
-    <t>Покази внутрішнього ел. Лічильника 2022 рік</t>
+    <t>Покази внутрішнього ел. лічильника 2021 рік</t>
+  </si>
+  <si>
+    <t>Покази внутрішнього ел. лічильника 2022 рік</t>
   </si>
 </sst>
 </file>
@@ -302,54 +305,54 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A4:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,306 +671,565 @@
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>54823</v>
+      </c>
+      <c r="C9" s="10">
+        <v>56310</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" ref="D8:D18" si="0">C9-B9</f>
+        <v>1487</v>
+      </c>
+      <c r="E9" s="11">
+        <v>44645</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" ref="B9:B18" si="1">C9</f>
+        <v>56310</v>
+      </c>
+      <c r="C10" s="10">
+        <v>57579</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>1269</v>
+      </c>
+      <c r="E10" s="11">
+        <v>44676</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="1"/>
+        <v>57579</v>
+      </c>
+      <c r="C11" s="10">
+        <v>58849</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+      <c r="E11" s="11">
+        <v>44706</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="1"/>
+        <v>58849</v>
+      </c>
+      <c r="C12" s="10">
+        <v>59133</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="E12" s="11">
+        <v>44737</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="1"/>
+        <v>59133</v>
+      </c>
+      <c r="C13" s="10">
+        <v>59209</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E13" s="11">
+        <v>44767</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="1"/>
+        <v>59209</v>
+      </c>
+      <c r="C14" s="10">
+        <v>59249</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="11">
+        <v>44798</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="1"/>
+        <v>59249</v>
+      </c>
+      <c r="C15" s="10">
+        <v>59339</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E15" s="11">
+        <v>44829</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="1"/>
+        <v>59339</v>
+      </c>
+      <c r="C16" s="10">
+        <v>59583</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="E16" s="11">
+        <v>44859</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="1"/>
+        <v>59583</v>
+      </c>
+      <c r="C17" s="10">
+        <v>60517</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>934</v>
+      </c>
+      <c r="E17" s="11">
+        <v>44890</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="1"/>
+        <v>60517</v>
+      </c>
+      <c r="C18" s="14">
         <v>62128</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>1611</v>
+      </c>
+      <c r="E18" s="15">
+        <v>44920</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <v>62128</v>
+      </c>
+      <c r="C23" s="6">
         <v>63542</v>
       </c>
-      <c r="D5" s="7">
-        <f>C5-B5</f>
+      <c r="D23" s="6">
+        <f>C23-B23</f>
         <v>1414</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E23" s="7">
         <v>44586</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F23" s="8">
         <v>1300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
-        <f>C5</f>
+      <c r="B24" s="10">
+        <f>C23</f>
         <v>63542</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C24" s="10">
         <v>65151</v>
       </c>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6:D16" si="0">C6-B6</f>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:D34" si="2">C24-B24</f>
         <v>1609</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E24" s="11">
         <v>44617</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F24" s="12">
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
-        <f t="shared" ref="B7:B16" si="1">C6</f>
+      <c r="B25" s="10">
+        <f t="shared" ref="B25:B34" si="3">C24</f>
         <v>65151</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C25" s="10">
         <v>66514</v>
       </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
+      <c r="D25" s="10">
+        <f t="shared" si="2"/>
         <v>1363</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E25" s="11">
         <v>44645</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F25" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11">
-        <f t="shared" si="1"/>
+      <c r="B26" s="10">
+        <f t="shared" si="3"/>
         <v>66514</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C26" s="10">
         <v>67195</v>
       </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
+      <c r="D26" s="10">
+        <f t="shared" si="2"/>
         <v>681</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E26" s="11">
         <v>44676</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F26" s="12">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11">
-        <f t="shared" si="1"/>
+      <c r="B27" s="10">
+        <f t="shared" si="3"/>
         <v>67195</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C27" s="10">
         <v>67331</v>
       </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
+      <c r="D27" s="10">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E27" s="11">
         <v>44706</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F27" s="12">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" si="1"/>
+      <c r="B28" s="10">
+        <f t="shared" si="3"/>
         <v>67331</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C28" s="10">
         <v>67375</v>
       </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
+      <c r="D28" s="10">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E28" s="11">
         <v>44737</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F28" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11">
-        <f t="shared" si="1"/>
+      <c r="B29" s="10">
+        <f t="shared" si="3"/>
         <v>67375</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C29" s="10">
         <v>67408</v>
       </c>
-      <c r="D11" s="11">
-        <f t="shared" si="0"/>
+      <c r="D29" s="10">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E29" s="11">
         <v>44767</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F29" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
-        <f t="shared" si="1"/>
+      <c r="B30" s="10">
+        <f t="shared" si="3"/>
         <v>67408</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C30" s="10">
         <v>67444</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
+      <c r="D30" s="10">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E30" s="11">
         <v>44798</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F30" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11">
-        <f t="shared" si="1"/>
+      <c r="B31" s="10">
+        <f t="shared" si="3"/>
         <v>67444</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C31" s="10">
         <v>67524</v>
       </c>
-      <c r="D13" s="11">
-        <f t="shared" si="0"/>
+      <c r="D31" s="10">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E31" s="11">
         <v>44829</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F31" s="12">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11">
-        <f t="shared" si="1"/>
+      <c r="B32" s="10">
+        <f t="shared" si="3"/>
         <v>67524</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C32" s="10">
         <v>67708</v>
       </c>
-      <c r="D14" s="11">
-        <f t="shared" si="0"/>
+      <c r="D32" s="10">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E32" s="11">
         <v>44859</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F32" s="12">
         <v>860</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11">
-        <f t="shared" si="1"/>
+      <c r="B33" s="10">
+        <f t="shared" si="3"/>
         <v>67708</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
-        <f t="shared" si="0"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10">
+        <f t="shared" si="2"/>
         <v>-67708</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E33" s="11">
         <v>44890</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F33" s="12">
         <v>1370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15">
-        <f t="shared" si="1"/>
+      <c r="B34" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
-        <f t="shared" si="0"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E34" s="15">
         <v>44920</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F34" s="16">
         <v>1300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -657,21 +657,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -740,7 +740,7 @@
         <v>56310</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" ref="D8:D18" si="0">C9-B9</f>
+        <f t="shared" ref="D9:D18" si="0">C9-B9</f>
         <v>1487</v>
       </c>
       <c r="E9" s="11">
@@ -748,12 +748,12 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <f t="shared" ref="B9:B18" si="1">C9</f>
+        <f t="shared" ref="B10:B18" si="1">C9</f>
         <v>56310</v>
       </c>
       <c r="C10" s="10">
@@ -768,7 +768,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -808,7 +808,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -868,7 +868,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
@@ -928,8 +928,8 @@
       </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>16</v>
       </c>
@@ -1194,10 +1194,12 @@
         <f t="shared" si="3"/>
         <v>67708</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="10">
+        <v>68343</v>
+      </c>
       <c r="D33" s="10">
         <f t="shared" si="2"/>
-        <v>-67708</v>
+        <v>635</v>
       </c>
       <c r="E33" s="11">
         <v>44890</v>
@@ -1206,18 +1208,18 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>68343</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-68343</v>
       </c>
       <c r="E34" s="15">
         <v>44920</v>
@@ -1241,7 +1243,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1253,7 +1255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Місяць</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Покази внутрішнього ел. лічильника 2022 рік</t>
+  </si>
+  <si>
+    <t>Покази внутрішнього ел. лічильника 2023 рік</t>
   </si>
 </sst>
 </file>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F34"/>
+  <dimension ref="A4:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,10 +1219,12 @@
         <f t="shared" si="3"/>
         <v>68343</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14">
+        <v>69324</v>
+      </c>
       <c r="D34" s="14">
         <f t="shared" si="2"/>
-        <v>-68343</v>
+        <v>981</v>
       </c>
       <c r="E34" s="15">
         <v>44920</v>
@@ -1228,10 +1233,264 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="6">
+        <v>69324</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6">
+        <f>C40-B40</f>
+        <v>-69324</v>
+      </c>
+      <c r="E40" s="7">
+        <v>44951</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="10">
+        <f>C40</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10">
+        <f t="shared" ref="D41:D51" si="4">C41-B41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="11">
+        <v>44982</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="10">
+        <f t="shared" ref="B42:B51" si="5">C41</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45010</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>45041</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45071</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>45102</v>
+      </c>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45132</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>45163</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45194</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>45224</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45255</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>45285</v>
+      </c>
+      <c r="F51" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Місяць</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Покази внутрішнього ел. лічильника 2023 рік</t>
+  </si>
+  <si>
+    <t>Ліміти на 2023</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A4:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.3">
@@ -1286,7 +1289,9 @@
       <c r="E40" s="7">
         <v>44951</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>1400</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
@@ -1304,7 +1309,9 @@
       <c r="E41" s="11">
         <v>44982</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12">
+        <v>1600</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
@@ -1322,7 +1329,9 @@
       <c r="E42" s="7">
         <v>45010</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="12">
+        <v>1350</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
@@ -1340,7 +1349,9 @@
       <c r="E43" s="11">
         <v>45041</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12">
+        <v>700</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
@@ -1358,7 +1369,9 @@
       <c r="E44" s="7">
         <v>45071</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12">
+        <v>150</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
@@ -1376,7 +1389,9 @@
       <c r="E45" s="11">
         <v>45102</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12">
+        <v>80</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
@@ -1394,7 +1409,9 @@
       <c r="E46" s="7">
         <v>45132</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
@@ -1412,7 +1429,9 @@
       <c r="E47" s="11">
         <v>45163</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="12">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
@@ -1430,7 +1449,9 @@
       <c r="E48" s="7">
         <v>45194</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="12">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
@@ -1448,7 +1469,9 @@
       <c r="E49" s="11">
         <v>45224</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="12">
+        <v>300</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -1466,7 +1489,9 @@
       <c r="E50" s="7">
         <v>45255</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="12">
+        <v>800</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
@@ -1484,7 +1509,9 @@
       <c r="E51" s="11">
         <v>45285</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="16">
+        <v>1200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,10 +1281,12 @@
       <c r="B40" s="6">
         <v>69324</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6">
+        <v>70567</v>
+      </c>
       <c r="D40" s="6">
         <f>C40-B40</f>
-        <v>-69324</v>
+        <v>1243</v>
       </c>
       <c r="E40" s="7">
         <v>44951</v>
@@ -1299,12 +1301,12 @@
       </c>
       <c r="B41" s="10">
         <f>C40</f>
-        <v>0</v>
+        <v>70567</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
         <f t="shared" ref="D41:D51" si="4">C41-B41</f>
-        <v>0</v>
+        <v>-70567</v>
       </c>
       <c r="E41" s="11">
         <v>44982</v>

--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\OneDrive\Документы\Лічильники\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="396" windowWidth="23256" windowHeight="12312"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -87,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,6 +375,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -417,7 +425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,7 +672,7 @@
   <dimension ref="A4:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,10 +1311,12 @@
         <f>C40</f>
         <v>70567</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <v>72088</v>
+      </c>
       <c r="D41" s="10">
         <f t="shared" ref="D41:D51" si="4">C41-B41</f>
-        <v>-70567</v>
+        <v>1521</v>
       </c>
       <c r="E41" s="11">
         <v>44982</v>
@@ -1321,12 +1331,12 @@
       </c>
       <c r="B42" s="10">
         <f t="shared" ref="B42:B51" si="5">C41</f>
-        <v>0</v>
+        <v>72088</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-72088</v>
       </c>
       <c r="E42" s="7">
         <v>45010</v>

--- a/Лічильники/Внутрішній ел. лічильник.xlsx
+++ b/Лічильники/Внутрішній ел. лічильник.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>Місяць</t>
   </si>
@@ -87,13 +87,25 @@
   </si>
   <si>
     <t>Ліміти на 2023</t>
+  </si>
+  <si>
+    <t>Покази ел. лічильника Бережницький СО</t>
+  </si>
+  <si>
+    <t>25.04.2023 р.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Староста </t>
+  </si>
+  <si>
+    <t>Андрій ШВЕД</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +131,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +391,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,18 +709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -695,7 +733,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -942,7 +980,7 @@
       </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>19</v>
@@ -953,7 +991,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1333,10 +1371,12 @@
         <f t="shared" ref="B42:B51" si="5">C41</f>
         <v>72088</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="10">
+        <v>73264</v>
+      </c>
       <c r="D42" s="10">
         <f t="shared" si="4"/>
-        <v>-72088</v>
+        <v>1176</v>
       </c>
       <c r="E42" s="7">
         <v>45010</v>
@@ -1351,12 +1391,14 @@
       </c>
       <c r="B43" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="10"/>
+        <v>73264</v>
+      </c>
+      <c r="C43" s="10">
+        <v>74175</v>
+      </c>
       <c r="D43" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="E43" s="11">
         <v>45041</v>
@@ -1371,12 +1413,12 @@
       </c>
       <c r="B44" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74175</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-74175</v>
       </c>
       <c r="E44" s="7">
         <v>45071</v>
@@ -1518,7 +1560,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="15">
         <v>45285</v>
       </c>
       <c r="F51" s="16">
@@ -1537,13 +1579,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>69324</v>
+      </c>
+      <c r="C7" s="6">
+        <v>70567</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7-B7</f>
+        <v>1243</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44951</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <f>C7</f>
+        <v>70567</v>
+      </c>
+      <c r="C8" s="10">
+        <v>72088</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" ref="D8:D18" si="0">C8-B8</f>
+        <v>1521</v>
+      </c>
+      <c r="E8" s="11">
+        <v>44982</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" ref="B9:B18" si="1">C8</f>
+        <v>72088</v>
+      </c>
+      <c r="C9" s="10">
+        <v>73264</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>1176</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45010</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="1"/>
+        <v>73264</v>
+      </c>
+      <c r="C10" s="10">
+        <v>74175</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>911</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45041</v>
+      </c>
+      <c r="F10" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="1"/>
+        <v>74175</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>-74175</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45071</v>
+      </c>
+      <c r="F11" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45102</v>
+      </c>
+      <c r="F12" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45132</v>
+      </c>
+      <c r="F13" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>45163</v>
+      </c>
+      <c r="F14" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45194</v>
+      </c>
+      <c r="F15" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>45224</v>
+      </c>
+      <c r="F16" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45255</v>
+      </c>
+      <c r="F17" s="12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45285</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
